--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
@@ -88,10 +88,10 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2078313333333333</v>
+        <v>0.1579376666666667</v>
       </c>
       <c r="N2">
-        <v>0.623494</v>
+        <v>0.473813</v>
       </c>
       <c r="O2">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="P2">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
       <c r="Q2">
-        <v>0.08072196697511112</v>
+        <v>0.0613432003168889</v>
       </c>
       <c r="R2">
-        <v>0.7264977027760001</v>
+        <v>0.552088802852</v>
       </c>
       <c r="S2">
-        <v>0.08621557350328635</v>
+        <v>0.05467876644486869</v>
       </c>
       <c r="T2">
-        <v>0.112461889302165</v>
+        <v>0.07340983674118848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>1.494381</v>
       </c>
       <c r="O3">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="P3">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
       <c r="Q3">
         <v>0.1934731909693334</v>
@@ -635,10 +635,10 @@
         <v>1.741258718724001</v>
       </c>
       <c r="S3">
-        <v>0.206640184103479</v>
+        <v>0.1724539210166233</v>
       </c>
       <c r="T3">
-        <v>0.2695469573039334</v>
+        <v>0.2315307204300726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.6877555</v>
+        <v>0.02135966666666667</v>
       </c>
       <c r="N4">
-        <v>3.375511</v>
+        <v>0.064079</v>
       </c>
       <c r="O4">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="P4">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
       <c r="Q4">
-        <v>0.6555264865406668</v>
+        <v>0.008296123012888889</v>
       </c>
       <c r="R4">
-        <v>3.933158919244001</v>
+        <v>0.07466510711600001</v>
       </c>
       <c r="S4">
-        <v>0.7001389349335798</v>
+        <v>0.00739481752299059</v>
       </c>
       <c r="T4">
-        <v>0.6088532438487625</v>
+        <v>0.0099280284174107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.016887</v>
+        <v>2.21104</v>
       </c>
       <c r="N5">
-        <v>0.050661</v>
+        <v>4.422079999999999</v>
       </c>
       <c r="O5">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="P5">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
       <c r="Q5">
-        <v>0.006558933316000002</v>
+        <v>0.8587708840533333</v>
       </c>
       <c r="R5">
-        <v>0.05903039984400001</v>
+        <v>5.15262530432</v>
       </c>
       <c r="S5">
-        <v>0.007005307459654769</v>
+        <v>0.7654724950155174</v>
       </c>
       <c r="T5">
-        <v>0.009137909545139137</v>
+        <v>0.6851314144113283</v>
       </c>
     </row>
   </sheetData>
